--- a/GL170_Script_ApproveJournal_21B.xlsx
+++ b/GL170_Script_ApproveJournal_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023EAF0-4EEA-4003-A6CF-D4CD927B1CFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B9FF56-CF49-4B8F-AB80-DE7AAE306DBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="464">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -17709,107 +17709,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="221">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="211">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -20267,7 +20167,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -20334,9 +20234,6 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -20370,9 +20267,6 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -20403,9 +20297,6 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -20436,9 +20327,6 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -20472,9 +20360,6 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -20503,9 +20388,6 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -20536,9 +20418,6 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -20572,9 +20451,6 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -20601,9 +20477,6 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -20634,9 +20507,6 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -20670,9 +20540,6 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -20705,9 +20572,6 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -20738,9 +20602,6 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -20773,9 +20634,6 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -20806,9 +20664,6 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -20838,9 +20693,6 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -20871,9 +20723,6 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -20907,9 +20756,6 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -20936,9 +20782,6 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
@@ -21479,7 +21322,7 @@
         <v>53</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K36" s="2"/>
       <c r="M36" s="2" t="s">
@@ -21512,7 +21355,7 @@
         <v>53</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K37" s="2"/>
       <c r="M37" s="2" t="s">
@@ -22990,323 +22833,323 @@
   <autoFilter ref="J1:J178" xr:uid="{5DD6EB75-166A-45DD-8C7B-7380956D39F6}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="220" priority="1415"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="219" priority="907"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="909"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="218" priority="759"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="761"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H19">
-    <cfRule type="duplicateValues" dxfId="217" priority="756"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="758"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H19">
-    <cfRule type="duplicateValues" dxfId="216" priority="757"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="758"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="759"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="760"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="duplicateValues" dxfId="214" priority="665"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="667"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="213" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="duplicateValues" dxfId="212" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="duplicateValues" dxfId="211" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="209" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="208" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="207" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="duplicateValues" dxfId="205" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="204" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="203" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="201" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="200" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="198" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="197" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62">
-    <cfRule type="duplicateValues" dxfId="195" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="194" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="193" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="191" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="190" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="188" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="187" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="186" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="184" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="183" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="181" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="180" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="178" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="177" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="175" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="174" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="172" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="171" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="169" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="168" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="166" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="165" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="163" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="duplicateValues" dxfId="162" priority="1432"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="161" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="160" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="159" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="duplicateValues" dxfId="158" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="157" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="156" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="155" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="154" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="153" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="152" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="151" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="duplicateValues" dxfId="150" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="duplicateValues" dxfId="149" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="duplicateValues" dxfId="148" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="146" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="145" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="duplicateValues" dxfId="144" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="duplicateValues" dxfId="143" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H14">
-    <cfRule type="duplicateValues" dxfId="142" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H14">
-    <cfRule type="duplicateValues" dxfId="141" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="139" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="138" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="duplicateValues" dxfId="136" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="duplicateValues" dxfId="135" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="134" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="133" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="131" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="130" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="128" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="duplicateValues" dxfId="127" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="126" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="125" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="123" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="122" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="120" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="119" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="duplicateValues" dxfId="31" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="29" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H33">
-    <cfRule type="duplicateValues" dxfId="28" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="duplicateValues" dxfId="27" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="93" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="duplicateValues" dxfId="92" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="91" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="duplicateValues" dxfId="90" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="89" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="88" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F62:G1048576 F57 F61 F58:G60 F1:G56" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -25203,206 +25046,206 @@
     <sortCondition ref="D2:D9"/>
   </sortState>
   <conditionalFormatting sqref="A137:A1048576 A122 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A124 A130">
-    <cfRule type="duplicateValues" dxfId="117" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A1048576 A122 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A124 A130">
-    <cfRule type="duplicateValues" dxfId="116" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="114" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="113" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="111" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="110" priority="249"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="108" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="107" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A56">
-    <cfRule type="duplicateValues" dxfId="105" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A56">
-    <cfRule type="duplicateValues" dxfId="104" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="102" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="101" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="duplicateValues" dxfId="99" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="duplicateValues" dxfId="98" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A73">
-    <cfRule type="duplicateValues" dxfId="96" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A73">
-    <cfRule type="duplicateValues" dxfId="95" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="93" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="92" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:A82">
-    <cfRule type="duplicateValues" dxfId="90" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:A82">
-    <cfRule type="duplicateValues" dxfId="89" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A94">
-    <cfRule type="duplicateValues" dxfId="87" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A94">
-    <cfRule type="duplicateValues" dxfId="86" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="84" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="83" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="81" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="80" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="78" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="77" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="75" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="74" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="73" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="71" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="70" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:A108">
-    <cfRule type="duplicateValues" dxfId="68" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="67" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="66" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A117">
-    <cfRule type="duplicateValues" dxfId="64" priority="1376"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A117">
-    <cfRule type="duplicateValues" dxfId="63" priority="1378"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="61" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="60" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="58" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="57" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="55" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="54" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="52" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="51" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="49" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="48" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="46" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="45" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="43" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="42" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/GL170_Script_ApproveJournal_21B.xlsx
+++ b/GL170_Script_ApproveJournal_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B9FF56-CF49-4B8F-AB80-DE7AAE306DBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE65F67-9E21-4F1A-B794-8EE3BCBD682E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="464">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -17709,27 +17709,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="211">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="209">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -20167,7 +20147,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -20234,6 +20214,9 @@
       </c>
     </row>
     <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -20267,6 +20250,9 @@
       </c>
     </row>
     <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -20297,6 +20283,9 @@
       </c>
     </row>
     <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -20327,6 +20316,9 @@
       </c>
     </row>
     <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -20360,6 +20352,9 @@
       </c>
     </row>
     <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -20388,6 +20383,9 @@
       </c>
     </row>
     <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -20418,6 +20416,9 @@
       </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -20451,6 +20452,9 @@
       </c>
     </row>
     <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -20477,6 +20481,9 @@
       </c>
     </row>
     <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -20507,6 +20514,9 @@
       </c>
     </row>
     <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -20540,6 +20550,9 @@
       </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -20572,6 +20585,9 @@
       </c>
     </row>
     <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -20602,6 +20618,9 @@
       </c>
     </row>
     <row r="14" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -20634,6 +20653,9 @@
       </c>
     </row>
     <row r="15" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -20664,6 +20686,9 @@
       </c>
     </row>
     <row r="16" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -20693,6 +20718,9 @@
       </c>
     </row>
     <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -20723,6 +20751,9 @@
       </c>
     </row>
     <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -20756,6 +20787,9 @@
       </c>
     </row>
     <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -20782,6 +20816,9 @@
       </c>
     </row>
     <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
@@ -22833,299 +22870,299 @@
   <autoFilter ref="J1:J178" xr:uid="{5DD6EB75-166A-45DD-8C7B-7380956D39F6}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="210" priority="1417"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="209" priority="909"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="909"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="208" priority="761"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="761"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H19">
-    <cfRule type="duplicateValues" dxfId="207" priority="758"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="758"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H19">
-    <cfRule type="duplicateValues" dxfId="206" priority="759"/>
-    <cfRule type="duplicateValues" dxfId="205" priority="760"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="759"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="760"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="duplicateValues" dxfId="204" priority="667"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="667"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="203" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="duplicateValues" dxfId="202" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="duplicateValues" dxfId="201" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="199" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="198" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="197" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="duplicateValues" dxfId="195" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="194" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="193" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="191" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="190" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="188" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="187" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62">
-    <cfRule type="duplicateValues" dxfId="185" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="184" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="183" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="181" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="180" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="178" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="177" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="176" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="174" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="173" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="171" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="170" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="168" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="167" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="165" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="164" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="162" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="161" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="159" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="158" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="156" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="155" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="153" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="duplicateValues" dxfId="152" priority="1434"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="151" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="150" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="149" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="duplicateValues" dxfId="148" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="147" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="146" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="145" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="144" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="143" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="142" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="141" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="duplicateValues" dxfId="140" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="duplicateValues" dxfId="139" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="duplicateValues" dxfId="138" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="136" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="135" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="duplicateValues" dxfId="134" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="duplicateValues" dxfId="133" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H14">
-    <cfRule type="duplicateValues" dxfId="132" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H14">
-    <cfRule type="duplicateValues" dxfId="131" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="129" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="128" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="duplicateValues" dxfId="126" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="duplicateValues" dxfId="125" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="124" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="123" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="121" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="120" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="118" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="duplicateValues" dxfId="117" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="116" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="115" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="113" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="112" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="110" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="109" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="duplicateValues" dxfId="107" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="duplicateValues" dxfId="106" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="105" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H33">
-    <cfRule type="duplicateValues" dxfId="104" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="duplicateValues" dxfId="103" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="102" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="101" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="99" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="98" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="97" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="96" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
     <cfRule type="duplicateValues" dxfId="93" priority="8"/>
@@ -23146,10 +23183,10 @@
     <cfRule type="duplicateValues" dxfId="88" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F62:G1048576 F57 F61 F58:G60 F1:G56" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -25046,206 +25083,206 @@
     <sortCondition ref="D2:D9"/>
   </sortState>
   <conditionalFormatting sqref="A137:A1048576 A122 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A124 A130">
-    <cfRule type="duplicateValues" dxfId="87" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A1048576 A122 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A124 A130">
-    <cfRule type="duplicateValues" dxfId="86" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="84" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="83" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="81" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="80" priority="249"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="78" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="77" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A56">
-    <cfRule type="duplicateValues" dxfId="75" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A56">
-    <cfRule type="duplicateValues" dxfId="74" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="72" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="71" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="duplicateValues" dxfId="69" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="duplicateValues" dxfId="68" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A73">
-    <cfRule type="duplicateValues" dxfId="66" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A73">
-    <cfRule type="duplicateValues" dxfId="65" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="63" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="62" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:A82">
-    <cfRule type="duplicateValues" dxfId="60" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:A82">
-    <cfRule type="duplicateValues" dxfId="59" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A94">
-    <cfRule type="duplicateValues" dxfId="57" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A94">
-    <cfRule type="duplicateValues" dxfId="56" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="54" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="53" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="51" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="50" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="48" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="47" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="45" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="44" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="43" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="41" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="40" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:A108">
-    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="37" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="36" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A117">
-    <cfRule type="duplicateValues" dxfId="34" priority="1376"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A117">
-    <cfRule type="duplicateValues" dxfId="33" priority="1378"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="31" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="30" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="27" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
